--- a/static/bs/Пути.xlsx
+++ b/static/bs/Пути.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tminn\Desktop\python_3.12\gazPromTrans\static\bs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tminn\Desktop\python_3.12\GPT_ConnecT\static\bs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6251DA62-1561-4A1D-A880-61149E9339C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851DAD77-406A-483B-AC19-15BCAAFC2054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
     <t>Серная</t>
   </si>
   <si>
-    <t>РИП</t>
-  </si>
-  <si>
-    <t>Твёрдая сера</t>
-  </si>
-  <si>
     <t>Наливная</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>РИП-3</t>
   </si>
   <si>
-    <t>Твёрдая сера-6</t>
-  </si>
-  <si>
     <t>Наливная-7</t>
   </si>
   <si>
@@ -124,6 +115,15 @@
   </si>
   <si>
     <t>liquid56_1</t>
+  </si>
+  <si>
+    <t>Твердая сера</t>
+  </si>
+  <si>
+    <t>Твердая сера-6</t>
+  </si>
+  <si>
+    <t>РИП Жидкая сера</t>
   </si>
 </sst>
 </file>
@@ -450,30 +450,30 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.76953125" customWidth="1"/>
-    <col min="3" max="3" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,9 +482,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -493,9 +493,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -504,9 +504,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -515,9 +515,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -526,9 +526,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -537,177 +537,177 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2</v>
